--- a/study-data-template-dict.xlsx
+++ b/study-data-template-dict.xlsx
@@ -10,6 +10,7 @@
     <sheet state="visible" name="sample_data" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'study-data-templates'!$A$1:$Z$193</definedName>
     <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">sample_data!$A$1:$Z$901</definedName>
   </definedNames>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="784">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -239,6 +240,9 @@
   </si>
   <si>
     <t>Identifier for the cruise, with year in parentheses.</t>
+  </si>
+  <si>
+    <t>water_sample_data</t>
   </si>
   <si>
     <t>line_id</t>
@@ -1905,7 +1909,182 @@
     <t>Place to add all accession of a project after submitting, eg Bioproject, GBIF, other accessions. Separate with space |</t>
   </si>
   <si>
+    <t>[sample_name](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/sample_name.html)</t>
+  </si>
+  <si>
+    <t>[title](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/title.html)</t>
+  </si>
+  <si>
+    <t>[biosample_accession](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/biosample_accession.html)</t>
+  </si>
+  <si>
+    <t>[samp_vol_we_dna_ext](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/samp_vol_we_dna_ext.html)</t>
+  </si>
+  <si>
+    <t>[samp_mat_process](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/samp_mat_process.html)</t>
+  </si>
+  <si>
+    <t>[size_frac](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/size_frac.html)</t>
+  </si>
+  <si>
+    <t>[library_id](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/library_id.html)</t>
+  </si>
+  <si>
+    <t>[library_strategy](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/library_strategy.html)</t>
+  </si>
+  <si>
+    <t>[library_source](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/library_source.html)</t>
+  </si>
+  <si>
+    <t>[library_selection](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/library_selection.html)</t>
+  </si>
+  <si>
+    <t>[lib_layout](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/lib_layout.html)</t>
+  </si>
+  <si>
+    <t>[platform](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/platform.html)</t>
+  </si>
+  <si>
+    <t>[instrument_model](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/instrument_model.html)</t>
+  </si>
+  <si>
+    <t>[design_description](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/design_description.html)</t>
+  </si>
+  <si>
+    <t>[drive_location](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/drive_location.html)</t>
+  </si>
+  <si>
+    <t>[sra_accession](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/sra_accession.html)</t>
+  </si>
+  <si>
+    <t>[date_dna_extracted](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/date_dna_extracted.html)</t>
+  </si>
+  <si>
+    <t>[extraction_personnel](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/extraction_personnel.html)</t>
+  </si>
+  <si>
+    <t>[date_pcr](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/date_pcr.html)</t>
+  </si>
+  <si>
+    <t>[pcr_personnel](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/pcr_personnel.html)</t>
+  </si>
+  <si>
+    <t>[seq_facility](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/seq_facility.html)</t>
+  </si>
+  <si>
+    <t>[seq_meth](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/seq_meth.html)</t>
+  </si>
+  <si>
+    <t>[nucl_acid_ext](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/nucl_acid_ext.html)</t>
+  </si>
+  <si>
+    <t>[target_gene](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/target_gene.html)</t>
+  </si>
+  <si>
+    <t>[target_subfragment](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/target_subfragment.html)</t>
+  </si>
+  <si>
+    <t>[pcr_primer_forward](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/pcr_primer_forward.html)</t>
+  </si>
+  <si>
+    <t>[pcr_primer_reverse](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/pcr_primer_reverse.html)</t>
+  </si>
+  <si>
+    <t>[pcr_primer_name_forward](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/pcr_primer_name_forward.html)</t>
+  </si>
+  <si>
+    <t>[pcr_primer_name_reverse](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/pcr_primer_name_reverse.html)</t>
+  </si>
+  <si>
+    <t>[pcr_primer_reference](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/pcr_primer_reference.html)</t>
+  </si>
+  <si>
+    <t>[pcr_cond](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/pcr_cond.html)</t>
+  </si>
+  <si>
+    <t>[nucl_acid_amp](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/nucl_acid_amp.html)</t>
+  </si>
+  <si>
+    <t>[adapters](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/adapters.html)</t>
+  </si>
+  <si>
+    <t>[mid_barcode](https://noaa-omics-templates.readthedocs.io/en/latest/terms/prep_data/mid_barcode.html)</t>
+  </si>
+  <si>
     <t>Term</t>
+  </si>
+  <si>
+    <t>[project_id](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/project_id.html)</t>
+  </si>
+  <si>
+    <t>[project_name](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/project_name.html)</t>
+  </si>
+  <si>
+    <t>[project_description](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/project_description.html)</t>
+  </si>
+  <si>
+    <t>[project_proposal](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/project_proposal.html)</t>
+  </si>
+  <si>
+    <t>[project_id_external](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/project_id_external.html)</t>
+  </si>
+  <si>
+    <t>[project_contact](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/project_contact.html)</t>
+  </si>
+  <si>
+    <t>[type](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/type.html)</t>
+  </si>
+  <si>
+    <t>[license](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/license.html)</t>
+  </si>
+  <si>
+    <t>[citation](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/citation.html)</t>
+  </si>
+  <si>
+    <t>[keywords](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/keywords.html)</t>
+  </si>
+  <si>
+    <t>[associated_parties](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/associated_parties.html)</t>
+  </si>
+  <si>
+    <t>[study_area_description](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/study_area_description.html)</t>
+  </si>
+  <si>
+    <t>[external_links](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/external_links.html)</t>
+  </si>
+  <si>
+    <t>[recorded_by](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/recorded_by.html)</t>
+  </si>
+  <si>
+    <t>[sampling_description](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/sampling_description.html)</t>
+  </si>
+  <si>
+    <t>[grant_title](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/grant_title.html)</t>
+  </si>
+  <si>
+    <t>[grant_agency](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/grant_agency.html)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Recommend providing name of funding agency and its DOI. A list of funding agencies with DOIs can be found here: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://doi.crossref.org/funderNames?mode=list</t>
+    </r>
+  </si>
+  <si>
+    <t>[grant_number](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/grant_number.html)</t>
+  </si>
+  <si>
+    <t>[accessions](https://noaa-omics-templates.readthedocs.io/en/latest/terms/study_data/accessions.html)</t>
   </si>
   <si>
     <t>[sample_name](https://noaa-omics-templates.readthedocs.io/en/latest/terms/sample_data/sample_name.html)</t>
@@ -2353,7 +2532,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2456,12 +2635,23 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF005580"/>
+      <name val="&quot;Ubuntu Mono&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2474,6 +2664,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0E68C"/>
+        <bgColor rgb="FFF0E68C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -2481,7 +2677,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2587,10 +2783,16 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2821,7 +3023,12 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -2916,7 +3123,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -3084,7 +3291,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -3126,7 +3333,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
@@ -3168,7 +3375,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="4" t="s">
         <v>42</v>
       </c>
@@ -3210,7 +3417,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -3252,7 +3459,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
@@ -3294,7 +3501,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="10" t="s">
         <v>55</v>
       </c>
@@ -3334,7 +3541,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="10" t="s">
         <v>58</v>
       </c>
@@ -3374,7 +3581,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="10" t="s">
         <v>61</v>
       </c>
@@ -3414,7 +3621,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="10" t="s">
         <v>64</v>
       </c>
@@ -3452,7 +3659,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="10" t="s">
         <v>66</v>
       </c>
@@ -3490,7 +3697,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="10" t="s">
         <v>68</v>
       </c>
@@ -3544,8 +3751,8 @@
       <c r="E18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>24</v>
+      <c r="F18" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>25</v>
@@ -3572,20 +3779,20 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>24</v>
+      <c r="F19" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>25</v>
@@ -3612,20 +3819,20 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>24</v>
+      <c r="F20" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>25</v>
@@ -3652,20 +3859,20 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>24</v>
+      <c r="F21" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>25</v>
@@ -3692,17 +3899,17 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>24</v>
@@ -3732,14 +3939,14 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>23</v>
@@ -3772,14 +3979,14 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>18</v>
@@ -3812,14 +4019,14 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>18</v>
@@ -3852,12 +4059,12 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>18</v>
@@ -3890,12 +4097,12 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>23</v>
@@ -3928,20 +4135,20 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>29</v>
@@ -3968,12 +4175,12 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>23</v>
@@ -4006,14 +4213,14 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>18</v>
@@ -4046,14 +4253,14 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>23</v>
@@ -4086,17 +4293,17 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>24</v>
@@ -4126,20 +4333,20 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>24</v>
+        <v>120</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>13</v>
@@ -4166,17 +4373,17 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>24</v>
@@ -4206,17 +4413,17 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>24</v>
@@ -4246,17 +4453,17 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>24</v>
@@ -4286,17 +4493,17 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>24</v>
@@ -4326,17 +4533,17 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>24</v>
@@ -4366,17 +4573,17 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>24</v>
@@ -4406,17 +4613,17 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>24</v>
@@ -4446,17 +4653,17 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" s="4">
         <v>26.0262</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>24</v>
@@ -4486,17 +4693,17 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B42" s="4">
         <v>-96.8373</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>24</v>
@@ -4526,17 +4733,17 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>24</v>
@@ -4566,20 +4773,20 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B44" s="4">
         <v>1100.0</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>29</v>
@@ -4606,20 +4813,20 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>24</v>
+        <v>161</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>29</v>
@@ -4646,17 +4853,17 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>24</v>
@@ -4686,20 +4893,20 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>25</v>
@@ -4726,15 +4933,15 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>24</v>
@@ -4764,15 +4971,15 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>24</v>
@@ -4802,14 +5009,14 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>23</v>
@@ -4842,17 +5049,17 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>24</v>
@@ -4882,17 +5089,17 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>24</v>
@@ -4922,18 +5129,18 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>24</v>
+        <v>187</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>25</v>
@@ -4960,18 +5167,18 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
       <c r="D54" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>24</v>
+        <v>190</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>25</v>
@@ -4998,18 +5205,18 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>24</v>
+        <v>193</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>25</v>
@@ -5036,18 +5243,18 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>24</v>
+        <v>196</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>25</v>
@@ -5074,18 +5281,18 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>24</v>
+        <v>199</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>25</v>
@@ -5112,18 +5319,18 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>24</v>
+        <v>202</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>25</v>
@@ -5150,18 +5357,18 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>24</v>
+        <v>205</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>25</v>
@@ -5188,18 +5395,18 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>24</v>
+        <v>208</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>25</v>
@@ -5226,18 +5433,18 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>24</v>
+        <v>211</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>25</v>
@@ -5264,18 +5471,18 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>24</v>
+        <v>214</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>25</v>
@@ -5302,18 +5509,18 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>24</v>
+        <v>217</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>25</v>
@@ -5340,18 +5547,18 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>24</v>
+        <v>220</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>25</v>
@@ -5378,18 +5585,18 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>24</v>
+        <v>223</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>25</v>
@@ -5416,18 +5623,18 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>24</v>
+        <v>226</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>25</v>
@@ -5454,18 +5661,18 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>24</v>
+        <v>229</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>25</v>
@@ -5492,18 +5699,18 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>24</v>
+        <v>232</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>25</v>
@@ -5530,18 +5737,18 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>24</v>
+        <v>235</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>25</v>
@@ -5568,18 +5775,18 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>24</v>
+        <v>238</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>25</v>
@@ -5606,18 +5813,18 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="16"/>
       <c r="D71" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>24</v>
+        <v>241</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>25</v>
@@ -5644,20 +5851,20 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B72" s="4">
         <v>1025.54</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>24</v>
+        <v>244</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>25</v>
@@ -5684,18 +5891,18 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>24</v>
+        <v>247</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>25</v>
@@ -5722,18 +5929,18 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>24</v>
+        <v>250</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>25</v>
@@ -5760,18 +5967,18 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>24</v>
+        <v>253</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>25</v>
@@ -5798,18 +6005,18 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>24</v>
+        <v>256</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>25</v>
@@ -5836,18 +6043,18 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>24</v>
+        <v>259</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>25</v>
@@ -5874,18 +6081,18 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>24</v>
+        <v>262</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>25</v>
@@ -5912,18 +6119,18 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>24</v>
+        <v>265</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>25</v>
@@ -5950,18 +6157,18 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>24</v>
+        <v>268</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>25</v>
@@ -5988,20 +6195,20 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>24</v>
+        <v>272</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>25</v>
@@ -6028,18 +6235,18 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="16"/>
       <c r="D82" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>24</v>
+        <v>275</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>25</v>
@@ -6066,18 +6273,18 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>24</v>
+        <v>278</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>25</v>
@@ -6104,20 +6311,20 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B84" s="4">
         <v>0.348</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>24</v>
+        <v>281</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>25</v>
@@ -6144,18 +6351,18 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>24</v>
+        <v>284</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>25</v>
@@ -6182,18 +6389,18 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>24</v>
+      <c r="F86" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>25</v>
@@ -6220,18 +6427,18 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>24</v>
+        <v>289</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>25</v>
@@ -6258,18 +6465,18 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>24</v>
+        <v>292</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>25</v>
@@ -6296,18 +6503,18 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>24</v>
+        <v>295</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>25</v>
@@ -6334,18 +6541,18 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>24</v>
+        <v>298</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>25</v>
@@ -6372,18 +6579,18 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>24</v>
+        <v>301</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>25</v>
@@ -6410,18 +6617,18 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>24</v>
+        <v>304</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>25</v>
@@ -6448,18 +6655,18 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
       <c r="D93" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>24</v>
+        <v>307</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>25</v>
@@ -6486,18 +6693,18 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>24</v>
+        <v>310</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>25</v>
@@ -6524,18 +6731,18 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>24</v>
+        <v>313</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>25</v>
@@ -6562,18 +6769,18 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
       <c r="D96" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>24</v>
+        <v>316</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>25</v>
@@ -6600,18 +6807,18 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
       <c r="D97" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>24</v>
+      <c r="F97" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>25</v>
@@ -6638,18 +6845,18 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
       <c r="D98" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>24</v>
+        <v>321</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>25</v>
@@ -6676,18 +6883,18 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>24</v>
+        <v>324</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>25</v>
@@ -6714,18 +6921,18 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
       <c r="D100" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>24</v>
+        <v>327</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>25</v>
@@ -6752,18 +6959,18 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
       <c r="D101" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>24</v>
+        <v>330</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>25</v>
@@ -6790,18 +6997,18 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
       <c r="D102" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>24</v>
+        <v>333</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>25</v>
@@ -6828,18 +7035,18 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
       <c r="D103" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>24</v>
+        <v>336</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>25</v>
@@ -6866,18 +7073,18 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>24</v>
+        <v>339</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>25</v>
@@ -6904,18 +7111,18 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
       <c r="D105" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>24</v>
+        <v>342</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>25</v>
@@ -6942,18 +7149,18 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
       <c r="D106" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>24</v>
+        <v>345</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>25</v>
@@ -6980,18 +7187,18 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
       <c r="D107" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>24</v>
+        <v>348</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>25</v>
@@ -7018,18 +7225,18 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
       <c r="D108" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>24</v>
+        <v>351</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>25</v>
@@ -7056,18 +7263,18 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
       <c r="D109" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>24</v>
+        <v>354</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>25</v>
@@ -7094,18 +7301,18 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
       <c r="D110" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>24</v>
+        <v>357</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>25</v>
@@ -7132,18 +7339,18 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
       <c r="D111" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>24</v>
+        <v>360</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>25</v>
@@ -7170,18 +7377,18 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
       <c r="D112" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>24</v>
+        <v>363</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>25</v>
@@ -7208,18 +7415,18 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
       <c r="D113" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>24</v>
+        <v>366</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>25</v>
@@ -7246,18 +7453,18 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
       <c r="D114" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>24</v>
+        <v>369</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>25</v>
@@ -7284,18 +7491,18 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
       <c r="D115" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>24</v>
+        <v>372</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>25</v>
@@ -7322,18 +7529,18 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
       <c r="D116" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>24</v>
+        <v>375</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>25</v>
@@ -7360,18 +7567,18 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
       <c r="D117" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>24</v>
+        <v>378</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>25</v>
@@ -7398,20 +7605,20 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>24</v>
+        <v>382</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>25</v>
@@ -7438,18 +7645,18 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="16"/>
       <c r="D119" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>24</v>
+        <v>385</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>25</v>
@@ -7476,18 +7683,18 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
       <c r="D120" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>24</v>
+        <v>388</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>25</v>
@@ -7514,18 +7721,18 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
       <c r="D121" s="18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>24</v>
+        <v>391</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>25</v>
@@ -7552,18 +7759,18 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
       <c r="D122" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>24</v>
+        <v>394</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>25</v>
@@ -7590,18 +7797,18 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
       <c r="D123" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>24</v>
+        <v>397</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>25</v>
@@ -7628,18 +7835,18 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
       <c r="D124" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>24</v>
+        <v>400</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>25</v>
@@ -7666,18 +7873,18 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
       <c r="D125" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>24</v>
+        <v>403</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>25</v>
@@ -7704,18 +7911,18 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
       <c r="D126" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>24</v>
+        <v>406</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>25</v>
@@ -7742,18 +7949,18 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
       <c r="D127" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>24</v>
+        <v>87</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>25</v>
@@ -7780,18 +7987,18 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
       <c r="D128" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>24</v>
+        <v>411</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>25</v>
@@ -7818,18 +8025,18 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
       <c r="D129" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>24</v>
+        <v>414</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>25</v>
@@ -7856,18 +8063,18 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
       <c r="D130" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>24</v>
+        <v>417</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>25</v>
@@ -7894,20 +8101,20 @@
     </row>
     <row r="131">
       <c r="A131" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>24</v>
+        <v>421</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>25</v>
@@ -7934,18 +8141,18 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
       <c r="D132" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>24</v>
+        <v>424</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>25</v>
@@ -7972,18 +8179,18 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
       <c r="D133" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>24</v>
+        <v>427</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>25</v>
@@ -8010,18 +8217,18 @@
     </row>
     <row r="134">
       <c r="A134" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
       <c r="D134" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>24</v>
+        <v>430</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>25</v>
@@ -8048,18 +8255,18 @@
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
       <c r="D135" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>24</v>
+        <v>433</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>25</v>
@@ -8086,18 +8293,18 @@
     </row>
     <row r="136">
       <c r="A136" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
       <c r="D136" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>24</v>
+        <v>436</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>25</v>
@@ -8124,18 +8331,18 @@
     </row>
     <row r="137">
       <c r="A137" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
       <c r="D137" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>24</v>
+        <v>439</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>25</v>
@@ -8162,18 +8369,18 @@
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
       <c r="D138" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>24</v>
+        <v>442</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>25</v>
@@ -8200,18 +8407,18 @@
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
       <c r="D139" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>24</v>
+        <v>445</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>25</v>
@@ -8238,18 +8445,18 @@
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
       <c r="D140" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>24</v>
+        <v>448</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>25</v>
@@ -8276,12 +8483,12 @@
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
       <c r="D141" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>18</v>
@@ -8312,22 +8519,22 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" hidden="1">
       <c r="A142" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B142" s="4">
         <v>411.0</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>29</v>
@@ -8352,22 +8559,22 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" hidden="1">
       <c r="A143" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C143" s="16"/>
       <c r="D143" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>29</v>
@@ -8392,22 +8599,22 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" hidden="1">
       <c r="A144" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C144" s="16"/>
       <c r="D144" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>29</v>
@@ -8432,22 +8639,22 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" hidden="1">
       <c r="A145" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B145" s="22" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C145" s="16"/>
       <c r="D145" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>29</v>
@@ -8472,22 +8679,22 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" hidden="1">
       <c r="A146" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C146" s="16"/>
       <c r="D146" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>54</v>
@@ -8512,22 +8719,22 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" hidden="1">
       <c r="A147" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C147" s="16"/>
       <c r="D147" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>54</v>
@@ -8552,22 +8759,22 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" hidden="1">
       <c r="A148" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C148" s="16"/>
       <c r="D148" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>54</v>
@@ -8592,20 +8799,20 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" hidden="1">
       <c r="A149" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
       <c r="D149" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>29</v>
@@ -8630,22 +8837,22 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" hidden="1">
       <c r="A150" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C150" s="16"/>
       <c r="D150" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>54</v>
@@ -8670,22 +8877,22 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" hidden="1">
       <c r="A151" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C151" s="16"/>
       <c r="D151" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>29</v>
@@ -8710,16 +8917,16 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" hidden="1">
       <c r="A152" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C152" s="16"/>
       <c r="D152" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E152" s="10" t="s">
         <v>18</v>
@@ -8750,12 +8957,12 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" hidden="1">
       <c r="A153" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
@@ -8788,12 +8995,12 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" hidden="1">
       <c r="A154" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
@@ -8826,12 +9033,12 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" hidden="1">
       <c r="A155" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
@@ -8864,19 +9071,19 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" hidden="1">
       <c r="A156" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C156" s="16"/>
       <c r="D156" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>19</v>
@@ -8904,12 +9111,12 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" hidden="1">
       <c r="A157" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
@@ -8942,12 +9149,12 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" hidden="1">
       <c r="A158" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
@@ -8980,16 +9187,16 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" hidden="1">
       <c r="A159" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C159" s="16"/>
       <c r="D159" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>18</v>
@@ -9020,16 +9227,16 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" hidden="1">
       <c r="A160" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C160" s="16"/>
       <c r="D160" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>23</v>
@@ -9060,14 +9267,14 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" hidden="1">
       <c r="A161" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B161" s="16"/>
       <c r="C161" s="16"/>
       <c r="D161" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>23</v>
@@ -9098,14 +9305,14 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" hidden="1">
       <c r="A162" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
       <c r="D162" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>23</v>
@@ -9136,14 +9343,14 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" hidden="1">
       <c r="A163" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
       <c r="D163" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>23</v>
@@ -9174,14 +9381,14 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" hidden="1">
       <c r="A164" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
       <c r="D164" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>23</v>
@@ -9212,14 +9419,14 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" hidden="1">
       <c r="A165" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
       <c r="D165" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>23</v>
@@ -9250,14 +9457,14 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" hidden="1">
       <c r="A166" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
       <c r="D166" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>23</v>
@@ -9288,19 +9495,19 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" hidden="1">
       <c r="A167" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C167" s="16"/>
       <c r="D167" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>19</v>
@@ -9328,17 +9535,17 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" hidden="1">
       <c r="A168" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B168" s="17"/>
       <c r="C168" s="16"/>
       <c r="D168" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>19</v>
@@ -9366,19 +9573,19 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" hidden="1">
       <c r="A169" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C169" s="16"/>
       <c r="D169" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>19</v>
@@ -9406,19 +9613,19 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" hidden="1">
       <c r="A170" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>19</v>
@@ -9446,17 +9653,17 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" hidden="1">
       <c r="A171" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B171" s="16"/>
       <c r="C171" s="16"/>
       <c r="D171" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E171" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>19</v>
@@ -9484,17 +9691,17 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" hidden="1">
       <c r="A172" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
       <c r="D172" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E172" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>19</v>
@@ -9522,17 +9729,17 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" hidden="1">
       <c r="A173" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
       <c r="D173" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E173" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>19</v>
@@ -9560,17 +9767,17 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" hidden="1">
       <c r="A174" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B174" s="16"/>
       <c r="C174" s="16"/>
       <c r="D174" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E174" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>19</v>
@@ -9598,17 +9805,17 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" hidden="1">
       <c r="A175" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B175" s="16"/>
       <c r="C175" s="16"/>
       <c r="D175" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E175" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>19</v>
@@ -9636,17 +9843,17 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" hidden="1">
       <c r="A176" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B176" s="16"/>
       <c r="C176" s="16"/>
       <c r="D176" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>19</v>
@@ -9674,17 +9881,17 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" hidden="1">
       <c r="A177" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B177" s="16"/>
       <c r="C177" s="16"/>
       <c r="D177" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>19</v>
@@ -9712,17 +9919,17 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" hidden="1">
       <c r="A178" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B178" s="16"/>
       <c r="C178" s="16"/>
       <c r="D178" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F178" s="17" t="s">
         <v>19</v>
@@ -9750,17 +9957,17 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" hidden="1">
       <c r="A179" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B179" s="16"/>
       <c r="C179" s="16"/>
       <c r="D179" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E179" s="21" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F179" s="17" t="s">
         <v>19</v>
@@ -9788,19 +9995,19 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" hidden="1">
       <c r="A180" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C180" s="16"/>
       <c r="D180" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E180" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>19</v>
@@ -9828,19 +10035,19 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" hidden="1">
       <c r="A181" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C181" s="16"/>
       <c r="D181" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>19</v>
@@ -9868,19 +10075,19 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" hidden="1">
       <c r="A182" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C182" s="16"/>
       <c r="D182" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>19</v>
@@ -9908,19 +10115,19 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" hidden="1">
       <c r="A183" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B183" s="4">
         <v>40.0</v>
       </c>
       <c r="C183" s="16"/>
       <c r="D183" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>19</v>
@@ -9948,19 +10155,19 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" hidden="1">
       <c r="A184" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C184" s="16"/>
       <c r="D184" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>19</v>
@@ -9988,16 +10195,16 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" hidden="1">
       <c r="A185" s="26" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E185" s="26" t="s">
         <v>54</v>
@@ -10028,16 +10235,16 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" hidden="1">
       <c r="A186" s="26" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B186" s="28" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C186" s="16"/>
       <c r="D186" s="27" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E186" s="26" t="s">
         <v>18</v>
@@ -10068,16 +10275,16 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" hidden="1">
       <c r="A187" s="26" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B187" s="29" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C187" s="16"/>
       <c r="D187" s="27" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E187" s="26" t="s">
         <v>54</v>
@@ -10108,16 +10315,16 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" hidden="1">
       <c r="A188" s="26" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C188" s="16"/>
       <c r="D188" s="27" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E188" s="26" t="s">
         <v>54</v>
@@ -10148,16 +10355,16 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" hidden="1">
       <c r="A189" s="26" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B189" s="29" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C189" s="16"/>
       <c r="D189" s="27" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E189" s="26" t="s">
         <v>23</v>
@@ -10188,16 +10395,16 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" hidden="1">
       <c r="A190" s="26" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C190" s="16"/>
       <c r="D190" s="31" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E190" s="26" t="s">
         <v>23</v>
@@ -10228,16 +10435,16 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" hidden="1">
       <c r="A191" s="26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B191" s="32" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C191" s="16"/>
       <c r="D191" s="27" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E191" s="26" t="s">
         <v>23</v>
@@ -10268,16 +10475,16 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" hidden="1">
       <c r="A192" s="26" t="s">
         <v>47</v>
       </c>
       <c r="B192" s="32" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="27" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E192" s="26" t="s">
         <v>23</v>
@@ -10308,16 +10515,16 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" hidden="1">
       <c r="A193" s="26" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B193" s="33" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C193" s="16"/>
       <c r="D193" s="27" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E193" s="26" t="s">
         <v>23</v>
@@ -10349,6 +10556,16 @@
       <c r="Z193" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$Z$193">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="sample_data"/>
+        <filter val="sample_data | analysis_data"/>
+        <filter val="sample_data | prep_data"/>
+        <filter val="water_sample_data"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G193">
       <formula1>"NCBI,OBIS,NCBI+OBIS,Recommended,Optional,Internal"</formula1>
@@ -10531,7 +10748,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>597</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -10542,7 +10759,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>598</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
@@ -10553,10 +10770,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>599</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>29</v>
@@ -10564,10 +10781,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>154</v>
+        <v>600</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>29</v>
@@ -10575,10 +10792,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>161</v>
+        <v>601</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
@@ -10586,10 +10803,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>165</v>
+        <v>602</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>25</v>
@@ -10597,10 +10814,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>482</v>
+        <v>603</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -10608,7 +10825,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>485</v>
+        <v>604</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="3" t="s">
@@ -10617,7 +10834,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>487</v>
+        <v>605</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
@@ -10626,7 +10843,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>489</v>
+        <v>606</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="3" t="s">
@@ -10635,10 +10852,10 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>491</v>
+        <v>607</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>18</v>
@@ -10646,7 +10863,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>495</v>
+        <v>608</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
@@ -10655,7 +10872,7 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>497</v>
+        <v>609</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="3" t="s">
@@ -10664,10 +10881,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>499</v>
+        <v>610</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>18</v>
@@ -10675,10 +10892,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>502</v>
+        <v>611</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>29</v>
@@ -10686,10 +10903,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>505</v>
+        <v>612</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>29</v>
@@ -10697,10 +10914,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>507</v>
+        <v>613</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>50</v>
@@ -10708,10 +10925,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>509</v>
+        <v>614</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>50</v>
@@ -10719,10 +10936,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>511</v>
+        <v>615</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>50</v>
@@ -10730,10 +10947,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>513</v>
+        <v>616</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>50</v>
@@ -10741,10 +10958,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>514</v>
+        <v>617</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>29</v>
@@ -10752,10 +10969,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>516</v>
+        <v>618</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>29</v>
@@ -10763,10 +10980,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>520</v>
+        <v>619</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>29</v>
@@ -10774,10 +10991,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>523</v>
+        <v>620</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>
@@ -10785,10 +11002,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>29</v>
@@ -10796,10 +11013,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>531</v>
+        <v>622</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
@@ -10807,10 +11024,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>533</v>
+        <v>623</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
@@ -10818,10 +11035,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>535</v>
+        <v>624</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>29</v>
@@ -10829,10 +11046,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>537</v>
+        <v>625</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>29</v>
@@ -10840,10 +11057,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>539</v>
+        <v>626</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>29</v>
@@ -10851,10 +11068,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>541</v>
+        <v>627</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>29</v>
@@ -10862,10 +11079,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>544</v>
+        <v>628</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>25</v>
@@ -10873,10 +11090,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>547</v>
+        <v>629</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>29</v>
@@ -10884,67 +11101,12 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="C40" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10960,7 +11122,7 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C42">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C35 C41:C42">
       <formula1>"NCBI,OBIS,NCBI+OBIS,Recommended,Optional,Internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10978,144 +11140,251 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="32.0"/>
+    <col customWidth="1" min="3" max="3" width="40.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f t="shared" ref="B2:B16" si="1">CONCATENATE("[",A2,"](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/",A2,".hmtl)")</f>
+        <v>[amplicon_sequenced](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/amplicon_sequenced.hmtl)</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[ampliconSize](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/ampliconSize.hmtl)</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[trim_method](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/trim_method.hmtl)</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[cluster_method](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/cluster_method.hmtl)</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[pid_clustering](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/pid_clustering.hmtl)</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[taxa_class_method](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/taxa_class_method.hmtl)</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[taxa_ref_db](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/taxa_ref_db.hmtl)</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C9" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[code_repo](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/code_repo.hmtl)</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="B10" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[sop](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/sop.hmtl)</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[identificationReferences](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/identificationReferences.hmtl)</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[controls_used](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/controls_used.hmtl)</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[assembly_qual](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/assembly_qual.hmtl)</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[assembly_software](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/assembly_software.hmtl)</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[annot](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/annot.hmtl)</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>[number_contig](https://noaa-omics-templates.readthedocs.io/en/latest/terms/analysis_data/number_contig.hmtl)</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D16">
       <formula1>"NCBI,OBIS,NCBI+OBIS,Recommended,Optional,Internal"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11146,7 +11415,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>632</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>35</v>
@@ -11154,10 +11423,11 @@
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="E2" s="35"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>633</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>39</v>
@@ -11168,7 +11438,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>634</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>45</v>
@@ -11179,7 +11449,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>635</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>49</v>
@@ -11188,13 +11458,192 @@
         <v>50</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C21">
       <formula1>"NCBI,OBIS,NCBI+OBIS,Recommended,Optional,Internal"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B18"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11215,9 +11664,9 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="B1" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -11226,7 +11675,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>597</v>
+        <v>652</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -11234,14 +11683,14 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>598</v>
+        <v>653</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -11249,10 +11698,10 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>599</v>
+        <v>654</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -11260,10 +11709,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -11271,10 +11720,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>601</v>
+        <v>656</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -11282,10 +11731,10 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>602</v>
+        <v>657</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -11293,10 +11742,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>603</v>
+        <v>658</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -11304,10 +11753,10 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>604</v>
+        <v>659</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -11315,10 +11764,10 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>605</v>
+        <v>660</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -11326,7 +11775,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>606</v>
+        <v>661</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
@@ -11337,7 +11786,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>607</v>
+        <v>662</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>73</v>
@@ -11348,10 +11797,10 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>608</v>
+        <v>663</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>25</v>
@@ -11359,10 +11808,10 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>609</v>
+        <v>664</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>25</v>
@@ -11370,10 +11819,10 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>610</v>
+        <v>665</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>25</v>
@@ -11381,10 +11830,10 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>611</v>
+        <v>666</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>25</v>
@@ -11392,10 +11841,10 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>612</v>
+        <v>667</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>25</v>
@@ -11403,10 +11852,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>613</v>
+        <v>668</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>25</v>
@@ -11414,10 +11863,10 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>614</v>
+        <v>669</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>25</v>
@@ -11425,10 +11874,10 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>615</v>
+        <v>670</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>25</v>
@@ -11436,10 +11885,10 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>616</v>
+        <v>671</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>25</v>
@@ -11447,10 +11896,10 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>617</v>
+        <v>672</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>25</v>
@@ -11458,10 +11907,10 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>618</v>
+        <v>673</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>25</v>
@@ -11469,10 +11918,10 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>619</v>
+        <v>674</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>25</v>
@@ -11480,10 +11929,10 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>620</v>
+        <v>675</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>25</v>
@@ -11491,10 +11940,10 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>25</v>
@@ -11502,10 +11951,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>622</v>
+        <v>677</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>25</v>
@@ -11513,10 +11962,10 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>623</v>
+        <v>678</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>25</v>
@@ -11524,10 +11973,10 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>624</v>
+        <v>679</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>25</v>
@@ -11535,10 +11984,10 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>625</v>
+        <v>680</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>25</v>
@@ -11546,10 +11995,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>626</v>
+        <v>681</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>25</v>
@@ -11557,10 +12006,10 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>25</v>
@@ -11568,10 +12017,10 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>628</v>
+        <v>683</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>25</v>
@@ -11579,10 +12028,10 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>629</v>
+        <v>684</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>25</v>
@@ -11590,10 +12039,10 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>630</v>
+        <v>685</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>25</v>
@@ -11601,10 +12050,10 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>631</v>
+        <v>686</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>25</v>
@@ -11612,10 +12061,10 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>632</v>
+        <v>687</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>25</v>
@@ -11623,10 +12072,10 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>633</v>
+        <v>688</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>25</v>
@@ -11634,10 +12083,10 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>634</v>
+        <v>689</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>25</v>
@@ -11645,10 +12094,10 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>635</v>
+        <v>690</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>25</v>
@@ -11656,10 +12105,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>636</v>
+        <v>691</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>25</v>
@@ -11667,10 +12116,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>637</v>
+        <v>692</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>25</v>
@@ -11678,10 +12127,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>638</v>
+        <v>693</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>25</v>
@@ -11689,10 +12138,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>639</v>
+        <v>694</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>25</v>
@@ -11700,10 +12149,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>640</v>
+        <v>695</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>25</v>
@@ -11711,10 +12160,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>25</v>
@@ -11722,10 +12171,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>642</v>
+        <v>697</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>25</v>
@@ -11733,10 +12182,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>643</v>
+        <v>698</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>25</v>
@@ -11744,10 +12193,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>644</v>
+        <v>699</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>25</v>
@@ -11755,10 +12204,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>645</v>
+        <v>700</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>25</v>
@@ -11766,10 +12215,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>646</v>
+        <v>701</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>25</v>
@@ -11777,10 +12226,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>647</v>
+        <v>702</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>25</v>
@@ -11788,10 +12237,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>648</v>
+        <v>703</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>25</v>
@@ -11799,10 +12248,10 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>649</v>
+        <v>704</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>25</v>
@@ -11810,10 +12259,10 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>650</v>
+        <v>705</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>25</v>
@@ -11821,10 +12270,10 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>651</v>
+        <v>706</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>25</v>
@@ -11832,10 +12281,10 @@
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>652</v>
+        <v>707</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>25</v>
@@ -11843,10 +12292,10 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>25</v>
@@ -11854,10 +12303,10 @@
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>25</v>
@@ -11865,10 +12314,10 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>25</v>
@@ -11876,10 +12325,10 @@
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>656</v>
+        <v>711</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>25</v>
@@ -11887,10 +12336,10 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>657</v>
+        <v>712</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>25</v>
@@ -11898,10 +12347,10 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>658</v>
+        <v>713</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>25</v>
@@ -11909,10 +12358,10 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>659</v>
+        <v>714</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>25</v>
@@ -11920,10 +12369,10 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>660</v>
+        <v>715</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>25</v>
@@ -11931,10 +12380,10 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>661</v>
+        <v>716</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>25</v>
@@ -11942,10 +12391,10 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>662</v>
+        <v>717</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>25</v>
@@ -11953,10 +12402,10 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>663</v>
+        <v>718</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>25</v>
@@ -11964,10 +12413,10 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>664</v>
+        <v>719</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>25</v>
@@ -11975,10 +12424,10 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>665</v>
+        <v>720</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>25</v>
@@ -11986,10 +12435,10 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>666</v>
+        <v>721</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>25</v>
@@ -11997,10 +12446,10 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>25</v>
@@ -12008,10 +12457,10 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>668</v>
+        <v>723</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>25</v>
@@ -12019,10 +12468,10 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>669</v>
+        <v>724</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>25</v>
@@ -12030,10 +12479,10 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>670</v>
+        <v>725</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>25</v>
@@ -12041,10 +12490,10 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>671</v>
+        <v>726</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>25</v>
@@ -12052,10 +12501,10 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>672</v>
+        <v>727</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>25</v>
@@ -12063,10 +12512,10 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>673</v>
+        <v>728</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>25</v>
@@ -12074,10 +12523,10 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>674</v>
+        <v>729</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>25</v>
@@ -12085,10 +12534,10 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>675</v>
+        <v>730</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>25</v>
@@ -12096,10 +12545,10 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>676</v>
+        <v>731</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>25</v>
@@ -12107,10 +12556,10 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>677</v>
+        <v>732</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>25</v>
@@ -12118,10 +12567,10 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>678</v>
+        <v>733</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>25</v>
@@ -12129,10 +12578,10 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>679</v>
+        <v>734</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>25</v>
@@ -12140,10 +12589,10 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>680</v>
+        <v>735</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>25</v>
@@ -12151,10 +12600,10 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>681</v>
+        <v>736</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>25</v>
@@ -12162,10 +12611,10 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>682</v>
+        <v>737</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>25</v>
@@ -12173,10 +12622,10 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>683</v>
+        <v>738</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>25</v>
@@ -12184,10 +12633,10 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>684</v>
+        <v>739</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>25</v>
@@ -12195,10 +12644,10 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>685</v>
+        <v>740</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>25</v>
@@ -12206,10 +12655,10 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>686</v>
+        <v>741</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>25</v>
@@ -12217,10 +12666,10 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>687</v>
+        <v>742</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>25</v>
@@ -12228,10 +12677,10 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>688</v>
+        <v>743</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>25</v>
@@ -12239,10 +12688,10 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>689</v>
+        <v>744</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>25</v>
@@ -12250,10 +12699,10 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>25</v>
@@ -12261,10 +12710,10 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>691</v>
+        <v>746</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>25</v>
@@ -12272,10 +12721,10 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>692</v>
+        <v>747</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>25</v>
@@ -12283,10 +12732,10 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>693</v>
+        <v>748</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>25</v>
@@ -12294,10 +12743,10 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>694</v>
+        <v>749</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>25</v>
@@ -12305,10 +12754,10 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>695</v>
+        <v>750</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>25</v>
@@ -12316,10 +12765,10 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>696</v>
+        <v>751</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>25</v>
@@ -12327,10 +12776,10 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>697</v>
+        <v>752</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>25</v>
@@ -12338,10 +12787,10 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>698</v>
+        <v>753</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>25</v>
@@ -12349,10 +12798,10 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>699</v>
+        <v>754</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>25</v>
@@ -12360,10 +12809,10 @@
     </row>
     <row r="105">
       <c r="A105" s="4" t="s">
-        <v>700</v>
+        <v>755</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>25</v>
@@ -12371,10 +12820,10 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>25</v>
@@ -12382,10 +12831,10 @@
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>25</v>
@@ -12393,10 +12842,10 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>703</v>
+        <v>758</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>25</v>
@@ -12404,7 +12853,7 @@
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>704</v>
+        <v>759</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>28</v>
@@ -12415,7 +12864,7 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>705</v>
+        <v>760</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>32</v>
@@ -12426,7 +12875,7 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>706</v>
+        <v>761</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>35</v>
@@ -12437,10 +12886,10 @@
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>707</v>
+        <v>762</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>29</v>
@@ -12448,10 +12897,10 @@
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>708</v>
+        <v>763</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>29</v>
@@ -12459,10 +12908,10 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>709</v>
+        <v>764</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>29</v>
@@ -12470,10 +12919,10 @@
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
-        <v>710</v>
+        <v>765</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>29</v>
@@ -12481,10 +12930,10 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>711</v>
+        <v>766</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>29</v>
@@ -12492,10 +12941,10 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>712</v>
+        <v>767</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>29</v>
@@ -12503,10 +12952,10 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>713</v>
+        <v>768</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>29</v>
@@ -12514,10 +12963,10 @@
     </row>
     <row r="119">
       <c r="A119" s="4" t="s">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>715</v>
+        <v>770</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>29</v>
@@ -12525,10 +12974,10 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>716</v>
+        <v>771</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>29</v>
@@ -12536,10 +12985,10 @@
     </row>
     <row r="121">
       <c r="A121" s="4" t="s">
-        <v>717</v>
+        <v>772</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>29</v>
@@ -12547,10 +12996,10 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>29</v>
@@ -12558,10 +13007,10 @@
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
-        <v>719</v>
+        <v>774</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>29</v>
@@ -12569,10 +13018,10 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>720</v>
+        <v>775</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>29</v>
@@ -12580,10 +13029,10 @@
     </row>
     <row r="125">
       <c r="A125" s="4" t="s">
-        <v>721</v>
+        <v>776</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>29</v>
@@ -12591,10 +13040,10 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>722</v>
+        <v>777</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>29</v>
@@ -12602,10 +13051,10 @@
     </row>
     <row r="127">
       <c r="A127" s="4" t="s">
-        <v>723</v>
+        <v>778</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>29</v>
@@ -12613,10 +13062,10 @@
     </row>
     <row r="128">
       <c r="A128" s="4" t="s">
-        <v>724</v>
+        <v>779</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>29</v>
@@ -12624,10 +13073,10 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>726</v>
+        <v>781</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>29</v>
@@ -12635,10 +13084,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="s">
-        <v>727</v>
+        <v>782</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>728</v>
+        <v>783</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>29</v>
